--- a/Basic_grammar/excel操作/工作簿2.xlsx
+++ b/Basic_grammar/excel操作/工作簿2.xlsx
@@ -1,43 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hnbl009/gitfile/learngit/Basic_grammar/excel操作/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{824229DC-4F0E-AC42-B3BB-7448ED0715E0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="登陆账号" sheetId="1" r:id="rId1"/>
+    <sheet name="联系人" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
-  <si>
-    <t>good</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+  <si>
+    <t>序号</t>
+    <rPh sb="0" eb="2">
+      <t>xu'hai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <rPh sb="0" eb="2">
+      <t>yong'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <rPh sb="0" eb="2">
+      <t>mi'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据表</t>
+    <rPh sb="0" eb="2">
+      <t>shu'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否执行</t>
+    <rPh sb="0" eb="2">
+      <t>shi'fo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <rPh sb="0" eb="2">
+      <t>ce'sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzz284117</t>
+  </si>
+  <si>
+    <t>联系人</t>
+    <rPh sb="0" eb="2">
+      <t>lian'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <rPh sb="0" eb="2">
+      <t>cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <rPh sb="0" eb="2">
+      <t>xu'ha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人姓名</t>
+    <rPh sb="0" eb="2">
+      <t>lian'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人邮箱</t>
+    <rPh sb="0" eb="2">
+      <t>lian'xi'er'e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <rPh sb="0" eb="2">
+      <t>dian'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行时间</t>
+    <rPh sb="0" eb="2">
+      <t>zhi'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <rPh sb="0" eb="2">
+      <t>ce's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF008080"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,15 +172,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -349,100 +478,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D1" sqref="D1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="B9">
-        <f>AVERAGE(B2:B8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5</v>
+    <row r="2" spans="1:6" ht="15">
+      <c r="B2">
+        <v>3031371046</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>